--- a/batch_image_product/excel/2025-04-11_banjin.txt_.xlsx
+++ b/batch_image_product/excel/2025-04-11_banjin.txt_.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -460,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>图片地址</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>日期</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>错误信息</t>
         </is>
       </c>
     </row>
@@ -482,18 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3D_realistic_transparent_backg_605713895842912385.png</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>605713895842912385</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45758</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>3Drealistictr9955996454919430538</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9.95599645491943e+18</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>banjin.txt/Defluxion II.safetensors/3Drealistictr9955996454919430538.png</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,18 +508,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A_cute_rabbit_with_a_few_feath_1081330191505080107.png</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1081330191505080107</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45758</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Acuterabbitw13548010640402011812</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.354801064040201e+19</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>banjin.txt/Defluxion II.safetensors/Acuterabbitw13548010640402011812.png</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,18 +538,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3D_realistic_transparent_backg_7011618147123947789.png</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7011618147123947789</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45758</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>3Drealistictr9243204410948052474</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>9.243204410948053e+18</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>banjin.txt/FluxMythP0rtr4itStyle.safetensors/3Drealistictr9243204410948052474.png</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,16 +568,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A_cute_rabbit_with_a_few_feath_17873945448585029152.png</t>
+          <t>Acuterabbitw9754023220788469006</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.787394544858503e+19</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45758</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>9.75402322078847e+18</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>banjin.txt/FluxMythP0rtr4itStyle.safetensors/Acuterabbitw9754023220788469006.png</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
